--- a/ope.ed.gov/2005/disciplinary-actions-noncampus-virginia-colleges-and-universities-crime-2005.xlsx
+++ b/ope.ed.gov/2005/disciplinary-actions-noncampus-virginia-colleges-and-universities-crime-2005.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Disciplinary_Actions_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="disciplinary-actions-noncampus-" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Disciplinary Actions - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -445,34 +442,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2005.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>697.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +504,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>697.0</v>
@@ -509,19 +530,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231411.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>697.0</v>
+        <v>2586.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -538,19 +559,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231420.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>2586.0</v>
+        <v>3804.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -567,19 +588,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231536.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>3804.0</v>
+        <v>7544.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -596,19 +617,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>7544.0</v>
+        <v>3946.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -625,19 +646,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231882.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>3946.0</v>
+        <v>720.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -654,19 +675,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>720.0</v>
+        <v>915.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -686,13 +707,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>915.0</v>
@@ -712,19 +733,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B11">
-        <v>248943.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>915.0</v>
+        <v>460.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -741,19 +762,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B12">
-        <v>442806.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>460.0</v>
+        <v>29728.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -770,19 +791,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>29728.0</v>
+        <v>1060.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -799,19 +820,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>1060.0</v>
+        <v>6309.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -831,13 +852,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>6309.0</v>
@@ -860,13 +881,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
         <v>6309.0</v>
@@ -886,28 +907,28 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232265.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>6309.0</v>
+        <v>16938.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
       </c>
       <c s="1" r="H17">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I17">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="18">
@@ -918,13 +939,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
         <v>16938.0</v>
@@ -933,10 +954,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I18">
-        <v>68.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -944,19 +965,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>16938.0</v>
+        <v>873.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -976,13 +997,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
         <v>873.0</v>
@@ -1002,19 +1023,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B21">
-        <v>231837.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>873.0</v>
+        <v>4374.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1031,19 +1052,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>4374.0</v>
+        <v>5492.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1060,19 +1081,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>5492.0</v>
+        <v>2428.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1089,19 +1110,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232609.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>2428.0</v>
+        <v>1891.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1121,13 +1142,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
         <v>1891.0</v>
@@ -1150,13 +1171,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
         <v>1891.0</v>
@@ -1179,13 +1200,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
         <v>1891.0</v>
@@ -1205,19 +1226,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231642.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>1891.0</v>
+        <v>2974.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1234,19 +1255,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232788.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>2974.0</v>
+        <v>6096.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1263,19 +1284,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>6096.0</v>
+        <v>37740.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1295,13 +1316,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
         <v>37740.0</v>
@@ -1324,13 +1345,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
         <v>37740.0</v>
@@ -1353,13 +1374,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
         <v>37740.0</v>
@@ -1382,13 +1403,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
         <v>37740.0</v>
@@ -1408,19 +1429,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232946.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>37740.0</v>
+        <v>3228.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -1437,19 +1458,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>3228.0</v>
+        <v>4163.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -1466,19 +1487,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>4163.0</v>
+        <v>9552.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -1495,19 +1516,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>9552.0</v>
+        <v>712.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -1524,19 +1545,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233301.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>712.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -1553,19 +1574,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B40">
-        <v>435213.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>110.0</v>
+        <v>717.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -1582,19 +1603,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>717.0</v>
+        <v>2998.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -1611,19 +1632,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B42">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>2998.0</v>
+        <v>4863.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -1640,19 +1661,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>4863.0</v>
+        <v>3666.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -1669,28 +1690,28 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233648.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>3666.0</v>
+        <v>1077.0</v>
       </c>
       <c s="1" r="G44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H44">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I44">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
@@ -1698,28 +1719,28 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B45">
-        <v>440341.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>1077.0</v>
+        <v>8595.0</v>
       </c>
       <c s="1" r="G45">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1727,19 +1748,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>8595.0</v>
+        <v>23718.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -1756,19 +1777,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>23718.0</v>
+        <v>4734.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -1785,19 +1806,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B48">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>4734.0</v>
+        <v>4542.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -1806,7 +1827,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1814,19 +1835,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B49">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>4542.0</v>
+        <v>23765.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -1835,7 +1856,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1843,19 +1864,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B50">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>23765.0</v>
+        <v>29168.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -1875,13 +1896,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
         <v>29168.0</v>
@@ -1901,19 +1922,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>29168.0</v>
+        <v>772.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -1930,19 +1951,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>772.0</v>
+        <v>1369.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -1959,19 +1980,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>1369.0</v>
+        <v>27979.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -1988,19 +2009,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>27979.0</v>
+        <v>5055.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2017,19 +2038,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234155.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>5055.0</v>
+        <v>178.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2046,19 +2067,19 @@
         <v>2005.0</v>
       </c>
       <c s="1" r="B57">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>178.0</v>
+        <v>1392.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -2067,35 +2088,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I57">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c s="1" r="A58">
-        <v>2005.0</v>
-      </c>
-      <c s="1" r="B58">
-        <v>234173.0</v>
-      </c>
-      <c t="s" s="1" r="C58">
-        <v>120</v>
-      </c>
-      <c s="1" r="D58">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E58">
-        <v>121</v>
-      </c>
-      <c s="1" r="F58">
-        <v>1392.0</v>
-      </c>
-      <c s="1" r="G58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I58">
         <v>0.0</v>
       </c>
     </row>
